--- a/classification/droptc/sentence/neo-bert/unfreeze/14298463/prediction.xlsx
+++ b/classification/droptc/sentence/neo-bert/unfreeze/14298463/prediction.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9996618032455444</v>
+        <v>0.9465354681015015</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.999981164932251</v>
+        <v>0.9999650716781616</v>
       </c>
     </row>
     <row r="4">
@@ -534,7 +534,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -546,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9993984699249268</v>
+        <v>0.8703916072845459</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999287128448486</v>
+        <v>0.9872515201568604</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.999174177646637</v>
+        <v>0.9999542236328125</v>
       </c>
     </row>
     <row r="7">
@@ -618,19 +618,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.999788224697113</v>
+        <v>0.9996316432952881</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4180140793323517</v>
+        <v>0.9997739195823669</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999727010726929</v>
+        <v>0.9838616251945496</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999700784683228</v>
+        <v>0.9997739195823669</v>
       </c>
     </row>
     <row r="11">
@@ -730,19 +730,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9998512268066406</v>
+        <v>0.7147612571716309</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.999925971031189</v>
+        <v>0.999735414981842</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9998664855957031</v>
+        <v>0.9660459756851196</v>
       </c>
     </row>
     <row r="14">
@@ -814,19 +814,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.999889612197876</v>
+        <v>0.9890734553337097</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999330043792725</v>
+        <v>0.86175537109375</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999942779541016</v>
+        <v>0.9985677003860474</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999722242355347</v>
+        <v>0.9990468621253967</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.974682629108429</v>
+        <v>0.9839126467704773</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999182224273682</v>
+        <v>0.9999622106552124</v>
       </c>
     </row>
     <row r="20">
@@ -982,19 +982,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9997120499610901</v>
+        <v>0.5617113709449768</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9988272786140442</v>
+        <v>0.9999237060546875</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9986587762832642</v>
+        <v>0.9968574047088623</v>
       </c>
     </row>
     <row r="23">
@@ -1071,14 +1071,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9984984397888184</v>
+        <v>0.9953312277793884</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999866485595703</v>
+        <v>0.9998088479042053</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999516010284424</v>
+        <v>0.9677335023880005</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7966499924659729</v>
+        <v>0.9894232153892517</v>
       </c>
     </row>
     <row r="27">
@@ -1178,19 +1178,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9353294372558594</v>
+        <v>0.9994723200798035</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9999903440475464</v>
+        <v>0.9999650716781616</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9999828338623047</v>
+        <v>0.9995877146720886</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9999885559082031</v>
+        <v>0.9999099969863892</v>
       </c>
     </row>
     <row r="31">
@@ -1290,19 +1290,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E31" t="b">
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9998800754547119</v>
+        <v>0.9998453855514526</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9999966621398926</v>
+        <v>0.9928499460220337</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9999130964279175</v>
+        <v>0.9985581040382385</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9999321699142456</v>
+        <v>0.9732723236083984</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9999330043792725</v>
+        <v>0.9956002235412598</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9995587468147278</v>
+        <v>0.9962124824523926</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9999699592590332</v>
+        <v>0.9994587302207947</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.999997615814209</v>
+        <v>0.9995299577713013</v>
       </c>
     </row>
     <row r="39">
@@ -1514,19 +1514,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E39" t="b">
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9998741149902344</v>
+        <v>0.4829880595207214</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9925470948219299</v>
+        <v>0.8727274537086487</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9999920129776001</v>
+        <v>0.9999500513076782</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9999555349349976</v>
+        <v>0.7221851348876953</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9998089671134949</v>
+        <v>0.9655447006225586</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9809262752532959</v>
+        <v>0.9992380142211914</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9999101161956787</v>
+        <v>0.998645007610321</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9997120499610901</v>
+        <v>0.968397319316864</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9999676942825317</v>
+        <v>0.4483508169651031</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9995941519737244</v>
+        <v>0.9923819899559021</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9999257326126099</v>
+        <v>0.9998169541358948</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9997071623802185</v>
+        <v>0.9991726279258728</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Normal</t>
         </is>
       </c>
       <c r="E51" t="b">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9775019288063049</v>
+        <v>0.9664521813392639</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9999384880065918</v>
+        <v>0.9998294115066528</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9999828338623047</v>
+        <v>0.9991726279258728</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9999567270278931</v>
+        <v>0.995398223400116</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.999963641166687</v>
+        <v>0.9999788999557495</v>
       </c>
     </row>
     <row r="56">
@@ -1990,19 +1990,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E56" t="b">
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9978796243667603</v>
+        <v>0.9999727010726929</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9999819993972778</v>
+        <v>0.9999669790267944</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9996540546417236</v>
+        <v>0.9977197051048279</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9940350651741028</v>
+        <v>0.9988757967948914</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9999954700469971</v>
+        <v>0.9984765648841858</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9811174273490906</v>
+        <v>0.9889728426933289</v>
       </c>
     </row>
     <row r="62">
@@ -2158,19 +2158,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E62" t="b">
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9995786547660828</v>
+        <v>0.9995867609977722</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9998650550842285</v>
+        <v>0.9993519186973572</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>SoftwareFault</t>
-        </is>
-      </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.2934408485889435</v>
+        <v>0.6781579852104187</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9931407570838928</v>
+        <v>0.9989314675331116</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9999828338623047</v>
+        <v>0.9989314675331116</v>
       </c>
     </row>
     <row r="67">
@@ -2303,14 +2303,14 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9490882158279419</v>
+        <v>0.9970337152481079</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9999383687973022</v>
+        <v>0.9989314675331116</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.999994158744812</v>
+        <v>0.9951168298721313</v>
       </c>
     </row>
     <row r="70">
@@ -2382,19 +2382,19 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E70" t="b">
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.999292254447937</v>
+        <v>0.999524712562561</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.6966211795806885</v>
+        <v>0.8424994945526123</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.999969482421875</v>
+        <v>0.9997288584709167</v>
       </c>
     </row>
     <row r="73">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9897749423980713</v>
+        <v>0.9989797472953796</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9980716109275818</v>
+        <v>0.996256947517395</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9675778746604919</v>
+        <v>0.99988853931427</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9999798536300659</v>
+        <v>0.9989797472953796</v>
       </c>
     </row>
     <row r="77">
@@ -2578,19 +2578,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E77" t="b">
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6058492064476013</v>
+        <v>0.9997349381446838</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9999465942382812</v>
+        <v>0.9989797472953796</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9999555349349976</v>
+        <v>0.9999533891677856</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9994181394577026</v>
+        <v>0.998955249786377</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9999881982803345</v>
+        <v>0.9944562911987305</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9996211528778076</v>
+        <v>0.998955249786377</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9997311234474182</v>
+        <v>0.9945191740989685</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9999555349349976</v>
+        <v>0.9945191740989685</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9999960660934448</v>
+        <v>0.9999127388000488</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9999709129333496</v>
+        <v>0.9989564418792725</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9999446868896484</v>
+        <v>0.9965305924415588</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9999490976333618</v>
+        <v>0.9993094205856323</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.6998425722122192</v>
+        <v>0.9993401169776917</v>
       </c>
     </row>
     <row r="90">
@@ -2942,19 +2942,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E90" t="b">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9999254941940308</v>
+        <v>0.9999467134475708</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9079411625862122</v>
+        <v>0.9999520778656006</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9999934434890747</v>
+        <v>0.9999356269836426</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9992054104804993</v>
+        <v>0.9999285936355591</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9999836683273315</v>
+        <v>0.999930739402771</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9995613694190979</v>
+        <v>0.9999264478683472</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9959652423858643</v>
+        <v>0.975822925567627</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.999723494052887</v>
+        <v>0.9904131293296814</v>
       </c>
     </row>
     <row r="98">
@@ -3166,19 +3166,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E98" t="b">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9994775652885437</v>
+        <v>0.9996956586837769</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9988935589790344</v>
+        <v>0.6911123991012573</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9999626874923706</v>
+        <v>0.9977424144744873</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E101" t="b">
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9999309778213501</v>
+        <v>0.9985576272010803</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9997758269309998</v>
+        <v>0.5118151307106018</v>
       </c>
     </row>
     <row r="103">
@@ -3306,19 +3306,19 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E103" t="b">
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9999511241912842</v>
+        <v>0.912199854850769</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9999774694442749</v>
+        <v>0.9853417873382568</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9986108541488647</v>
+        <v>0.9999088048934937</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9999949932098389</v>
+        <v>0.9997355341911316</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9999786615371704</v>
+        <v>0.9990893602371216</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9986903071403503</v>
+        <v>0.998595654964447</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E109" t="b">
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9983515739440918</v>
+        <v>0.9981811046600342</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9986409544944763</v>
+        <v>0.9999650716781616</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9999555349349976</v>
+        <v>0.9992210865020752</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9999511241912842</v>
+        <v>0.9992134571075439</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9999042749404907</v>
+        <v>0.991747260093689</v>
       </c>
     </row>
     <row r="114">
@@ -3619,14 +3619,14 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9921234250068665</v>
+        <v>0.999859094619751</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9995042085647583</v>
+        <v>0.9870151281356812</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9999566078186035</v>
+        <v>0.9786742925643921</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9999352693557739</v>
+        <v>0.9987784028053284</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9999094009399414</v>
+        <v>0.637859582901001</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E119" t="b">
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9990192651748657</v>
+        <v>0.6657773852348328</v>
       </c>
     </row>
     <row r="120">
@@ -3782,19 +3782,19 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E120" t="b">
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9345733523368835</v>
+        <v>0.9999650716781616</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9999715089797974</v>
+        <v>0.9990597367286682</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.997927188873291</v>
+        <v>0.9998998641967773</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9995622038841248</v>
+        <v>0.9990597367286682</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9991967082023621</v>
+        <v>0.9998998641967773</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.6707262396812439</v>
+        <v>0.9990597367286682</v>
       </c>
     </row>
     <row r="126">
@@ -3950,19 +3950,19 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E126" t="b">
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9999675750732422</v>
+        <v>0.9999758005142212</v>
       </c>
     </row>
     <row r="127">
@@ -3983,14 +3983,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9988272786140442</v>
+        <v>0.5423493385314941</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9999972581863403</v>
+        <v>0.9999650716781616</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9760909676551819</v>
+        <v>0.9394627213478088</v>
       </c>
     </row>
     <row r="130">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9855718612670898</v>
+        <v>0.704314649105072</v>
       </c>
     </row>
     <row r="131">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9863812327384949</v>
+        <v>0.9998576641082764</v>
       </c>
     </row>
     <row r="132">
@@ -4118,19 +4118,19 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9999681711196899</v>
+        <v>0.7322512865066528</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.5462775230407715</v>
+        <v>0.9997401833534241</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9995819926261902</v>
+        <v>0.7947667241096497</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9999555349349976</v>
+        <v>0.9846582412719727</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9999916553497314</v>
+        <v>0.9854575395584106</v>
       </c>
     </row>
     <row r="137">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E137" t="b">
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9413897395133972</v>
+        <v>0.9999117851257324</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9987936019897461</v>
+        <v>0.996283233165741</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9999603033065796</v>
+        <v>0.9995991587638855</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.999953031539917</v>
+        <v>0.9999442100524902</v>
       </c>
     </row>
     <row r="141">
@@ -4370,19 +4370,19 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E141" t="b">
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9998325109481812</v>
+        <v>0.9183893799781799</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9996916055679321</v>
+        <v>0.9999650716781616</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9998282194137573</v>
+        <v>0.9915300607681274</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.999966025352478</v>
+        <v>0.9998974800109863</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.999708354473114</v>
+        <v>0.9915300607681274</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.999573290348053</v>
+        <v>0.9915312528610229</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9998650550842285</v>
+        <v>0.9951168298721313</v>
       </c>
     </row>
     <row r="148">
@@ -4566,19 +4566,19 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E148" t="b">
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9998469352722168</v>
+        <v>0.9988127946853638</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9999555349349976</v>
+        <v>0.9839524626731873</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9969934225082397</v>
+        <v>0.5333921313285828</v>
       </c>
     </row>
     <row r="151">
@@ -4650,19 +4650,19 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E151" t="b">
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.991361677646637</v>
+        <v>0.9999650716781616</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9999094009399414</v>
+        <v>0.9976500868797302</v>
       </c>
     </row>
     <row r="153">
@@ -4706,19 +4706,19 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E153" t="b">
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9997518658638</v>
+        <v>0.998913049697876</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9996922016143799</v>
+        <v>0.9990322589874268</v>
       </c>
     </row>
     <row r="155">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9994250535964966</v>
+        <v>0.9999963045120239</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9897233247756958</v>
+        <v>0.9979252815246582</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9999415874481201</v>
+        <v>0.9999846220016479</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9999827146530151</v>
+        <v>0.9994352459907532</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9999651908874512</v>
+        <v>0.9999784231185913</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.7013182640075684</v>
+        <v>0.6838340759277344</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9999796152114868</v>
+        <v>0.9977768063545227</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9663897752761841</v>
+        <v>0.966374397277832</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.999967098236084</v>
+        <v>0.9989939332008362</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9999383687973022</v>
+        <v>0.994289755821228</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9999094009399414</v>
+        <v>0.9999902248382568</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9999837875366211</v>
+        <v>0.9988774657249451</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9999700784683228</v>
+        <v>0.9979991316795349</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.999964714050293</v>
+        <v>0.6590378284454346</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9999613761901855</v>
+        <v>0.9999650716781616</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9988865256309509</v>
+        <v>0.9979991316795349</v>
       </c>
     </row>
     <row r="171">
@@ -5210,19 +5210,19 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.988807737827301</v>
+        <v>0.9555361866950989</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9995830655097961</v>
+        <v>0.9999650716781616</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9999555349349976</v>
+        <v>0.9996604919433594</v>
       </c>
     </row>
     <row r="174">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="E174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9244570136070251</v>
+        <v>0.9997990727424622</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9999930858612061</v>
+        <v>0.9996604919433594</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9997790455818176</v>
+        <v>0.9996604919433594</v>
       </c>
     </row>
     <row r="177">
@@ -5383,14 +5383,14 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9947580695152283</v>
+        <v>0.9997990727424622</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9999834299087524</v>
+        <v>0.9998782873153687</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9999901056289673</v>
+        <v>0.9998780488967896</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9955574870109558</v>
+        <v>0.9968181848526001</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9999821186065674</v>
+        <v>0.9991183876991272</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9999831914901733</v>
+        <v>0.9999818801879883</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.999953031539917</v>
+        <v>0.9953290224075317</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9999607801437378</v>
+        <v>0.999967098236084</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9906134605407715</v>
+        <v>0.9998270869255066</v>
       </c>
     </row>
     <row r="186">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5639,10 +5639,10 @@
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9404225945472717</v>
+        <v>0.9996138215065002</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9999936819076538</v>
+        <v>0.9991753697395325</v>
       </c>
     </row>
     <row r="188">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5695,10 +5695,10 @@
         </is>
       </c>
       <c r="E188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.4596495628356934</v>
+        <v>0.9988732933998108</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9997417330741882</v>
+        <v>0.9997997879981995</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E190" t="b">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9998469352722168</v>
+        <v>0.9998106360435486</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9998211264610291</v>
+        <v>0.8667082190513611</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9994534850120544</v>
+        <v>0.9999566078186035</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9999816417694092</v>
+        <v>0.9992434978485107</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.997016429901123</v>
+        <v>0.9968817234039307</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.999955415725708</v>
+        <v>0.9944264888763428</v>
       </c>
     </row>
     <row r="196">
@@ -5910,19 +5910,19 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E196" t="b">
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.4853866696357727</v>
+        <v>0.9999810457229614</v>
       </c>
     </row>
     <row r="197">
@@ -5938,19 +5938,19 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E197" t="b">
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9998469352722168</v>
+        <v>0.9998699426651001</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9266079664230347</v>
+        <v>0.9996250867843628</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E199" t="b">
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9996540546417236</v>
+        <v>0.9996329545974731</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9999555349349976</v>
+        <v>0.9671491980552673</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.999822199344635</v>
+        <v>0.9999731779098511</v>
       </c>
     </row>
     <row r="202">
@@ -6078,19 +6078,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E202" t="b">
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9997417330741882</v>
+        <v>0.9994766116142273</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9999555349349976</v>
+        <v>0.9991231560707092</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9997830986976624</v>
+        <v>0.9973848462104797</v>
       </c>
     </row>
     <row r="205">
@@ -6162,19 +6162,19 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E205" t="b">
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9994766116142273</v>
+        <v>0.919505774974823</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9999287128448486</v>
+        <v>0.9998910427093506</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.999953031539917</v>
+        <v>0.9876060485839844</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9999700784683228</v>
+        <v>0.9996198415756226</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E209" t="b">
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9998829364776611</v>
+        <v>0.9678853154182434</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.999990701675415</v>
+        <v>0.9999744892120361</v>
       </c>
     </row>
   </sheetData>
